--- a/forecast_summary_B07FWY246F.xlsx
+++ b/forecast_summary_B07FWY246F.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>10.91963126420463</v>
       </c>
       <c r="D2" t="n">
-        <v>15.2410870445464</v>
+        <v>14.95802326421451</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>13.88034128094274</v>
       </c>
       <c r="D3" t="n">
-        <v>18.22367145746673</v>
+        <v>18.45554370263362</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>4.604753990403003</v>
       </c>
       <c r="D4" t="n">
-        <v>9.198450593487067</v>
+        <v>9.056873413574788</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-4.294502080438701</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2358336848355309</v>
+        <v>0.09544228974705921</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>2.447752252589765</v>
       </c>
       <c r="D6" t="n">
-        <v>6.942704325917525</v>
+        <v>6.54031076553778</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>19.55872383151161</v>
       </c>
       <c r="D7" t="n">
-        <v>24.03017699715726</v>
+        <v>24.03788370872932</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>19.3501170706231</v>
       </c>
       <c r="D8" t="n">
-        <v>23.85222545033105</v>
+        <v>23.85809838178441</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-19.99893227193119</v>
       </c>
       <c r="D9" t="n">
-        <v>-15.41563130535145</v>
+        <v>-15.67141185770489</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-84.81616742335265</v>
       </c>
       <c r="D10" t="n">
-        <v>-80.29476800402637</v>
+        <v>-80.26859325642778</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-131.0883833953669</v>
       </c>
       <c r="D11" t="n">
-        <v>-126.7260705262956</v>
+        <v>-126.8287419021841</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-123.924655734057</v>
       </c>
       <c r="D12" t="n">
-        <v>-119.3308822641365</v>
+        <v>-119.8189600679889</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-70.94343970023057</v>
       </c>
       <c r="D13" t="n">
-        <v>-66.60216555874024</v>
+        <v>-66.62681735699366</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-13.89495145118146</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.683899407153664</v>
+        <v>-9.438204387260496</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>11.66218010309276</v>
       </c>
       <c r="D15" t="n">
-        <v>15.78904717687238</v>
+        <v>16.10147390362517</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>5.170503971953524</v>
       </c>
       <c r="D16" t="n">
-        <v>9.8278222068208</v>
+        <v>9.492702471053811</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-8.694893562235</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.079112521958414</v>
+        <v>-4.256808500895027</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-10.96191098933129</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.531293815080628</v>
+        <v>-6.915890034689752</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-3.833027609781424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6234549497386001</v>
+        <v>0.7179539465884134</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>1.085981800731495</v>
       </c>
       <c r="D20" t="n">
-        <v>5.277152429117858</v>
+        <v>5.362785074728651</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.2145422683840537</v>
       </c>
       <c r="D21" t="n">
-        <v>4.619877443749427</v>
+        <v>4.537134826347565</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B450 AORUS M</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
